--- a/LogBook_August2016.xlsx
+++ b/LogBook_August2016.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsola/Work/git/beamtest_aug16/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Run</t>
   </si>
@@ -80,16 +93,74 @@
   </si>
   <si>
     <t>RMS</t>
+  </si>
+  <si>
+    <t>Run #</t>
+  </si>
+  <si>
+    <t>Test_1 @ 150V</t>
+  </si>
+  <si>
+    <t>Test_2 @ 150V</t>
+  </si>
+  <si>
+    <t>Test_4 @ 200V</t>
+  </si>
+  <si>
+    <t>Test_3 @ 200V</t>
+  </si>
+  <si>
+    <t>Vbias scan - 200V</t>
+  </si>
+  <si>
+    <t>Vbias scan - 130V</t>
+  </si>
+  <si>
+    <t>Vbias scan - 150V (a)</t>
+  </si>
+  <si>
+    <t>Vbias scan - 150V (b)</t>
+  </si>
+  <si>
+    <t>Vbias scan - 170V</t>
+  </si>
+  <si>
+    <t>Vbias scan - 190V</t>
+  </si>
+  <si>
+    <t>Vbias scan - 220V</t>
+  </si>
+  <si>
+    <t>Vbias scan - 210V (a)</t>
+  </si>
+  <si>
+    <t>Vbias scan - 210V (b)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,10 +183,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -126,13 +217,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -194,9 +315,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -229,9 +350,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -435,1118 +556,1232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.59765625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.6640625" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.33203125" customWidth="1"/>
-    <col min="32" max="32" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.59765625" customWidth="1"/>
-    <col min="36" max="36" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.6640625" customWidth="1"/>
+    <col min="36" max="36" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK1" s="1"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
       <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6" t="s">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B5" s="5">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="6">
         <v>42599</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="7">
         <v>0.96736111111111101</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
         <v>150</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2">
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2">
         <v>150</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="2">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="2">
         <v>150</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="3"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="2">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="2">
         <v>29</v>
       </c>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B6" s="5">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="6">
         <v>42599</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="7">
         <v>0.98888888888888893</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="4"/>
+      <c r="F6" s="2">
         <v>150</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2">
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2">
         <v>150</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="2">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="2">
         <v>150</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="2">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="2">
         <v>29</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="3"/>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B7" s="5">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="6">
         <v>42600</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="7">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="4"/>
+      <c r="F7" s="2">
         <v>200</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2">
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2">
         <v>200</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="2">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="2">
         <v>200</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="3"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="2">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="2">
         <v>29</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="3"/>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B8" s="5">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="6">
         <v>42600</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="7">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2">
         <v>200</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2">
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2">
         <v>200</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="2">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="2">
         <v>200</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="3"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="2">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="2">
         <v>29</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="3"/>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B9" s="5">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>42600</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="7">
         <v>0.43333333333333335</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="4">
+        <v>96400</v>
+      </c>
+      <c r="F9" s="2">
         <v>200</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2">
         <v>150</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2">
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2">
         <v>200</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="2">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2">
         <v>150</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="2">
+      <c r="S9" s="2"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="2">
         <v>200</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="2">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="2">
         <v>150</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="2">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="2">
         <v>28</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="3"/>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="2">
-        <v>96399</v>
-      </c>
-      <c r="AK9" s="2"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="2"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B10" s="5">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
         <v>42600</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="7">
         <v>0.62430555555555556</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="4">
+        <v>16220</v>
+      </c>
+      <c r="F10" s="2">
         <v>130</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>128.80000000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2">
+      <c r="I10" s="3"/>
+      <c r="J10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>-350</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2">
         <v>130</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>129.30000000000001</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>7</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="2">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2">
         <v>100</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>-350</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="2">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="2">
         <v>130</v>
       </c>
-      <c r="U10" s="2">
+      <c r="W10" s="2">
         <v>129.6</v>
       </c>
-      <c r="V10" s="2">
+      <c r="X10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="2">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="2">
         <v>100</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AA10" s="2">
         <v>-350</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="2">
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="2">
         <v>28</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AE10" s="2">
         <v>27.3</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AF10" s="2">
         <v>2.7330000000000001</v>
       </c>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="2">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="2">
         <v>75</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AI10" s="2">
         <v>230</v>
       </c>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="2">
-        <v>16219</v>
-      </c>
-      <c r="AK10" s="2"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="2"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B11" s="5">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
         <v>42600</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="7">
         <v>0.65138888888888891</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="4">
+        <v>1597</v>
+      </c>
+      <c r="F11" s="2">
         <v>150</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>148.9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2">
+      <c r="I11" s="3"/>
+      <c r="J11" s="2">
         <v>100</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>-350</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2">
         <v>150</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>149.4</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2">
         <v>100</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>-350</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="2">
         <v>150</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <v>149.6</v>
       </c>
-      <c r="V11" s="2">
+      <c r="X11" s="2">
         <v>0</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="2">
         <v>100</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AA11" s="2">
         <v>-350</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="2">
         <v>28</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AE11" s="2">
         <v>27.4</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AF11" s="2">
         <v>3.26</v>
       </c>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="2">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="2">
         <v>73</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AI11" s="2">
         <v>200</v>
       </c>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="2">
-        <v>1597</v>
-      </c>
-      <c r="AK11" s="2"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B12" s="5">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
         <v>42600</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="7">
         <v>0.98888888888888893</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="4">
+        <v>99999</v>
+      </c>
+      <c r="F12" s="2">
         <v>150</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>148.69999999999999</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>7</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>-350</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2">
         <v>150</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>149.30000000000001</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>-350</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="2">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="2">
         <v>150</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V12" s="2">
+      <c r="X12" s="2">
         <v>2</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>-350</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="2">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="2">
         <v>28</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AE12" s="2">
         <v>27.2</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AF12" s="2">
         <v>3.5</v>
       </c>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3">
         <v>73</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AI12" s="3">
         <v>200</v>
       </c>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="2">
-        <v>99998</v>
-      </c>
-      <c r="AK12" s="2"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="2"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B13" s="5">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6">
         <v>42601</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="7">
         <v>0.4291666666666667</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="4">
+        <v>21410</v>
+      </c>
+      <c r="F13" s="2">
         <v>170</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>168.7</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="2">
         <v>7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="I13" s="3">
         <v>4</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J13" s="2">
         <v>130</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>-440</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3">
         <v>275.10000000000002</v>
       </c>
-      <c r="K13" s="3">
+      <c r="M13" s="3">
         <v>14.7</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>170</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>169.6</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>7</v>
       </c>
-      <c r="O13" s="3">
+      <c r="Q13" s="3">
         <v>7</v>
       </c>
-      <c r="P13" s="3">
+      <c r="R13" s="3">
         <v>130</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="S13" s="3">
         <v>-440</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
         <v>336.1</v>
       </c>
-      <c r="S13" s="3">
+      <c r="U13" s="3">
         <v>15.1</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <v>170</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <v>169.5</v>
       </c>
-      <c r="V13" s="2">
+      <c r="X13" s="2">
         <v>2</v>
       </c>
-      <c r="W13" s="3">
+      <c r="Y13" s="3">
         <v>0</v>
       </c>
-      <c r="X13" s="3">
+      <c r="Z13" s="3">
         <v>130</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="AA13" s="3">
         <v>-440</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AB13" s="3">
         <v>291</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AC13" s="3">
         <v>13.5</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AD13" s="2">
         <v>28</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AE13" s="2">
         <v>27.2</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AF13" s="2">
         <v>3.4</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AG13" s="3">
         <v>4.3</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AH13" s="2">
         <v>70</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AI13" s="2">
         <v>240</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AJ13" s="3">
         <v>129.80000000000001</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AK13" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AJ13" s="2">
-        <v>21410</v>
-      </c>
-      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B14" s="5">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
         <v>42601</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="7">
         <v>0.49027777777777781</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="4">
+        <v>11356</v>
+      </c>
+      <c r="F14" s="3">
         <v>190</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>188.9</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>150</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-520</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>334.6</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>13.5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>190</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>189.5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>7</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>7</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>150</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-520</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>406.1</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>15.4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>190</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>189.5</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>150</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>-520</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>351.6</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>13.2</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>28</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>27.3</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AF14" s="3">
         <v>4.3</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AG14" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AH14" s="3">
         <v>70</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AI14" s="3">
         <v>240</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AJ14" s="3">
         <v>130.30000000000001</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AK14" s="3">
         <v>2.1</v>
       </c>
-      <c r="AJ14" s="3">
-        <v>11356</v>
-      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="B15" s="5">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6">
         <v>42601</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="7">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="4">
+        <v>18387</v>
+      </c>
+      <c r="F15" s="3">
         <v>220</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>219</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>220</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>-780</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>220</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>219.4</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>220</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-780</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>220</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>219.6</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>220</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-780</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>28</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>27.4</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AF15" s="3">
         <v>4.7</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AH15" s="3">
         <v>70</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AI15" s="3">
         <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42601</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4388</v>
+      </c>
+      <c r="F16" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42601</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F17" s="4">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB4:AI4"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="25">
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="A1:A4"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F4:M4"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AJ1:AJ4"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
